--- a/prepare_contacts/data/outbound_geolocated_reviewed.xlsx
+++ b/prepare_contacts/data/outbound_geolocated_reviewed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BenjaminMcCarty\Documents\Git Repositories\JLG\JLG_Provider_Recommender\prepare_contacts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CB69ED-9414-4E6C-B508-2935CBE756CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB50249-86A2-4398-AA64-F462A278C5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="3660" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="287">
   <si>
     <t>Full Name</t>
   </si>
@@ -903,6 +903,12 @@
   </si>
   <si>
     <t>contactId</t>
+  </si>
+  <si>
+    <t>FV Updated</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -959,17 +965,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1055,8 +1084,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{5815FA66-76F1-4968-BBE0-71434DE74960}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="15">
-    <queryTableFields count="14">
+  <queryTableRefresh nextId="16" unboundColumnsRight="1">
+    <queryTableFields count="15">
       <queryTableField id="1" name="contactId" tableColumnId="1"/>
       <queryTableField id="2" name="Full Name" tableColumnId="2"/>
       <queryTableField id="3" name="Street" tableColumnId="3"/>
@@ -1071,36 +1100,38 @@
       <queryTableField id="12" name="GeocodeQuality" tableColumnId="12"/>
       <queryTableField id="13" name="ConfidenceScore" tableColumnId="13"/>
       <queryTableField id="14" name="GeocodeStatus" tableColumnId="14"/>
+      <queryTableField id="15" dataBound="0" tableColumnId="15"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{75474AB9-6EC1-4A6A-AF37-638661CD8652}" name="Table1_1" displayName="Table1_1" ref="A1:N64" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:N64" xr:uid="{75474AB9-6EC1-4A6A-AF37-638661CD8652}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{D7BE753B-CA2A-4217-A934-A31DE24391C5}" uniqueName="1" name="contactId" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{21B00F91-F6E2-4125-AF61-9AC37AC58D20}" uniqueName="2" name="Full Name" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{BF65E6CA-00E0-4ADC-A8C2-BA1C6C0708CE}" uniqueName="3" name="Street" queryTableFieldId="3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{51276ED7-E754-4E2E-A85D-C03773A87619}" uniqueName="4" name="City" queryTableFieldId="4" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{5FA21E61-69E1-4FED-B8B0-FB427F29634D}" uniqueName="5" name="State" queryTableFieldId="5" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{286A2AC2-91B9-42B0-849C-171DE013D709}" uniqueName="6" name="Zip" queryTableFieldId="6" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{75474AB9-6EC1-4A6A-AF37-638661CD8652}" name="Table1_1" displayName="Table1_1" ref="A1:O65" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:O64" xr:uid="{75474AB9-6EC1-4A6A-AF37-638661CD8652}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{D7BE753B-CA2A-4217-A934-A31DE24391C5}" uniqueName="1" name="contactId" totalsRowLabel="Total" queryTableFieldId="1"/>
+    <tableColumn id="2" xr3:uid="{21B00F91-F6E2-4125-AF61-9AC37AC58D20}" uniqueName="2" name="Full Name" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{BF65E6CA-00E0-4ADC-A8C2-BA1C6C0708CE}" uniqueName="3" name="Street" queryTableFieldId="3" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{51276ED7-E754-4E2E-A85D-C03773A87619}" uniqueName="4" name="City" queryTableFieldId="4" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{5FA21E61-69E1-4FED-B8B0-FB427F29634D}" uniqueName="5" name="State" queryTableFieldId="5" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{286A2AC2-91B9-42B0-849C-171DE013D709}" uniqueName="6" name="Zip" queryTableFieldId="6" dataDxfId="6"/>
     <tableColumn id="7" xr3:uid="{0CABBD8C-C57D-45A6-BDF3-6C8D9621BB1F}" uniqueName="7" name="Referral Count" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{BE56A259-199D-4723-BFB9-3555F7B9D124}" uniqueName="8" name="Full Address" queryTableFieldId="8" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{BE56A259-199D-4723-BFB9-3555F7B9D124}" uniqueName="8" name="Full Address" queryTableFieldId="8" dataDxfId="5"/>
     <tableColumn id="9" xr3:uid="{51593605-9543-4BC2-B884-BB5288475B0F}" uniqueName="9" name="Latitude" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{CF4C2E15-1375-4C2E-8DA6-F6C2938147C0}" uniqueName="10" name="Longitude" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{13B622C7-8611-4151-9CD9-5BD24A69975B}" uniqueName="11" name="GeocodeSource" queryTableFieldId="11" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{1C80BD43-F833-4304-B9E7-2E56E7B7872C}" uniqueName="12" name="GeocodeQuality" queryTableFieldId="12" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{CF4C2E15-1375-4C2E-8DA6-F6C2938147C0}" uniqueName="10" name="Longitude" totalsRowFunction="count" queryTableFieldId="10"/>
+    <tableColumn id="11" xr3:uid="{13B622C7-8611-4151-9CD9-5BD24A69975B}" uniqueName="11" name="GeocodeSource" queryTableFieldId="11" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{1C80BD43-F833-4304-B9E7-2E56E7B7872C}" uniqueName="12" name="GeocodeQuality" queryTableFieldId="12" dataDxfId="3"/>
     <tableColumn id="13" xr3:uid="{DF228746-A329-4E49-8FAC-8DD0E1A59A61}" uniqueName="13" name="ConfidenceScore" queryTableFieldId="13"/>
-    <tableColumn id="14" xr3:uid="{90F6B541-8AF7-4AF6-8DA6-8660CCF0BEA9}" uniqueName="14" name="GeocodeStatus" queryTableFieldId="14" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{90F6B541-8AF7-4AF6-8DA6-8660CCF0BEA9}" uniqueName="14" name="GeocodeStatus" queryTableFieldId="14" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{987D1981-9C45-47EA-92BC-5CDD9C8FC837}" uniqueName="15" name="FV Updated" totalsRowFunction="average" queryTableFieldId="15" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BBB4385-5477-473D-838D-8308D3AA6C5C}" name="Table1" displayName="Table1" ref="A1:M62" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BBB4385-5477-473D-838D-8308D3AA6C5C}" name="Table1" displayName="Table1" ref="A1:M62" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A1:M62" xr:uid="{1BBB4385-5477-473D-838D-8308D3AA6C5C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M62">
     <sortCondition descending="1" ref="F1:F62"/>
@@ -1411,29 +1442,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D328D5E-872A-4AD0-B35C-A25E2EE596CE}">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.36328125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="48.54296875" customWidth="1"/>
     <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7265625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.1796875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7265625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="16.1796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>284</v>
       </c>
@@ -1476,1130 +1509,1208 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>996701857</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>175</v>
+        <v>993709552</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" t="s">
+        <v>178</v>
       </c>
       <c r="G2">
-        <v>60</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>219</v>
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>258</v>
       </c>
       <c r="I2">
-        <v>38.616638000000002</v>
+        <v>38.965454463390998</v>
       </c>
       <c r="J2">
-        <v>-76.890698</v>
-      </c>
-      <c r="K2" s="2" t="s">
+        <v>-76.845078138519995</v>
+      </c>
+      <c r="K2" t="s">
+        <v>279</v>
+      </c>
+      <c r="L2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M2">
+        <v>0.85</v>
+      </c>
+      <c r="N2" t="s">
+        <v>281</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>996605614</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>241</v>
+      </c>
+      <c r="I3">
+        <v>38.818064999999997</v>
+      </c>
+      <c r="J3">
+        <v>-76.999032999999997</v>
+      </c>
+      <c r="K3" t="s">
         <v>282</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L3" t="s">
         <v>283</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>281</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>993726318</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>241</v>
+      </c>
+      <c r="I4">
+        <v>38.818064999999997</v>
+      </c>
+      <c r="J4">
+        <v>-76.999032999999997</v>
+      </c>
+      <c r="K4" t="s">
+        <v>282</v>
+      </c>
+      <c r="L4" t="s">
+        <v>283</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>281</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>996605037</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I5">
+        <v>39.420141000000001</v>
+      </c>
+      <c r="J5">
+        <v>-76.614934000000005</v>
+      </c>
+      <c r="K5" t="s">
+        <v>282</v>
+      </c>
+      <c r="L5" t="s">
+        <v>283</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>281</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>996600127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>235</v>
+      </c>
+      <c r="I6">
+        <v>39.087856649315</v>
+      </c>
+      <c r="J6">
+        <v>-76.861151226469005</v>
+      </c>
+      <c r="K6" t="s">
+        <v>279</v>
+      </c>
+      <c r="L6" t="s">
+        <v>280</v>
+      </c>
+      <c r="M6">
+        <v>0.85</v>
+      </c>
+      <c r="N6" t="s">
+        <v>281</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>996374028</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I7">
+        <v>38.852527168123999</v>
+      </c>
+      <c r="J7">
+        <v>-76.913269197366006</v>
+      </c>
+      <c r="K7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M7">
+        <v>0.85</v>
+      </c>
+      <c r="N7" t="s">
+        <v>281</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>994518555</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>256</v>
+      </c>
+      <c r="I8">
+        <v>38.287827</v>
+      </c>
+      <c r="J8">
+        <v>-76.486659000000003</v>
+      </c>
+      <c r="K8" t="s">
+        <v>282</v>
+      </c>
+      <c r="L8" t="s">
+        <v>283</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>281</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>993886050</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>260</v>
+      </c>
+      <c r="I9">
+        <v>38.297423000000002</v>
+      </c>
+      <c r="J9">
+        <v>-76.507039000000006</v>
+      </c>
+      <c r="K9" t="s">
+        <v>282</v>
+      </c>
+      <c r="L9" t="s">
+        <v>283</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>281</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>996302056</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>259</v>
+      </c>
+      <c r="I10">
+        <v>38.978453621085997</v>
+      </c>
+      <c r="J10">
+        <v>-76.732646498934997</v>
+      </c>
+      <c r="K10" t="s">
+        <v>279</v>
+      </c>
+      <c r="L10" t="s">
+        <v>280</v>
+      </c>
+      <c r="M10">
+        <v>0.85</v>
+      </c>
+      <c r="N10" t="s">
+        <v>281</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>993719001</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>234</v>
+      </c>
+      <c r="I11">
+        <v>38.896697813256999</v>
+      </c>
+      <c r="J11">
+        <v>-76.914184208229997</v>
+      </c>
+      <c r="K11" t="s">
+        <v>279</v>
+      </c>
+      <c r="L11" t="s">
+        <v>280</v>
+      </c>
+      <c r="M11">
+        <v>0.85</v>
+      </c>
+      <c r="N11" t="s">
+        <v>281</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>996701816</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I12">
+        <v>39.076770688882</v>
+      </c>
+      <c r="J12">
+        <v>-76.867433314411002</v>
+      </c>
+      <c r="K12" t="s">
+        <v>279</v>
+      </c>
+      <c r="L12" t="s">
+        <v>280</v>
+      </c>
+      <c r="M12">
+        <v>0.85</v>
+      </c>
+      <c r="N12" t="s">
+        <v>281</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>996701795</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>224</v>
+      </c>
+      <c r="I13">
+        <v>38.997937241301997</v>
+      </c>
+      <c r="J13">
+        <v>-77.023113278425996</v>
+      </c>
+      <c r="K13" t="s">
+        <v>279</v>
+      </c>
+      <c r="L13" t="s">
+        <v>280</v>
+      </c>
+      <c r="M13">
+        <v>0.85</v>
+      </c>
+      <c r="N13" t="s">
+        <v>281</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>993714301</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" t="s">
+        <v>191</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>238</v>
+      </c>
+      <c r="I14">
+        <v>39.039647653868997</v>
+      </c>
+      <c r="J14">
+        <v>-77.055816835957003</v>
+      </c>
+      <c r="K14" t="s">
+        <v>279</v>
+      </c>
+      <c r="L14" t="s">
+        <v>280</v>
+      </c>
+      <c r="M14">
+        <v>0.85</v>
+      </c>
+      <c r="N14" t="s">
+        <v>281</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>993722861</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>262</v>
+      </c>
+      <c r="I15">
+        <v>39.282380835028</v>
+      </c>
+      <c r="J15">
+        <v>-76.754056916446004</v>
+      </c>
+      <c r="K15" t="s">
+        <v>279</v>
+      </c>
+      <c r="L15" t="s">
+        <v>280</v>
+      </c>
+      <c r="M15">
+        <v>0.85</v>
+      </c>
+      <c r="N15" t="s">
+        <v>281</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>996605659</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>243</v>
+      </c>
+      <c r="I16">
+        <v>38.917507188746001</v>
+      </c>
+      <c r="J16">
+        <v>-76.563371273724997</v>
+      </c>
+      <c r="K16" t="s">
+        <v>279</v>
+      </c>
+      <c r="L16" t="s">
+        <v>280</v>
+      </c>
+      <c r="M16">
+        <v>0.85</v>
+      </c>
+      <c r="N16" t="s">
+        <v>281</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>993724575</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>253</v>
+      </c>
+      <c r="I17">
+        <v>39.452903999999997</v>
+      </c>
+      <c r="J17">
+        <v>-76.638546000000005</v>
+      </c>
+      <c r="K17" t="s">
+        <v>282</v>
+      </c>
+      <c r="L17" t="s">
+        <v>283</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>281</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>995274400</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" t="s">
+        <v>197</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I18">
+        <v>38.982585401911997</v>
+      </c>
+      <c r="J18">
+        <v>-77.094011577450999</v>
+      </c>
+      <c r="K18" t="s">
+        <v>279</v>
+      </c>
+      <c r="L18" t="s">
+        <v>280</v>
+      </c>
+      <c r="M18">
+        <v>0.85</v>
+      </c>
+      <c r="N18" t="s">
+        <v>281</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>996605635</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C19" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D19" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E19" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" t="s">
         <v>176</v>
       </c>
-      <c r="G3">
+      <c r="G19">
         <v>37</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H19" t="s">
         <v>220</v>
       </c>
-      <c r="I3">
+      <c r="I19">
         <v>38.992915000000004</v>
       </c>
-      <c r="J3">
+      <c r="J19">
         <v>-76.875826000000004</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M3">
-        <v>0.85</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="K19" t="s">
+        <v>279</v>
+      </c>
+      <c r="L19" t="s">
+        <v>280</v>
+      </c>
+      <c r="M19">
+        <v>0.85</v>
+      </c>
+      <c r="N19" t="s">
+        <v>281</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>996490715</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>255</v>
+      </c>
+      <c r="I20">
+        <v>38.994166972965999</v>
+      </c>
+      <c r="J20">
+        <v>-76.537415349574005</v>
+      </c>
+      <c r="K20" t="s">
+        <v>279</v>
+      </c>
+      <c r="L20" t="s">
+        <v>280</v>
+      </c>
+      <c r="M20">
+        <v>0.85</v>
+      </c>
+      <c r="N20" t="s">
+        <v>281</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>996416169</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>254</v>
+      </c>
+      <c r="I21">
+        <v>38.553465614632003</v>
+      </c>
+      <c r="J21">
+        <v>-76.592343271912995</v>
+      </c>
+      <c r="K21" t="s">
+        <v>279</v>
+      </c>
+      <c r="L21" t="s">
+        <v>280</v>
+      </c>
+      <c r="M21">
+        <v>0.85</v>
+      </c>
+      <c r="N21" t="s">
+        <v>281</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>996174730</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>266</v>
+      </c>
+      <c r="I22">
+        <v>38.983138747917998</v>
+      </c>
+      <c r="J22">
+        <v>-76.535295298017999</v>
+      </c>
+      <c r="K22" t="s">
+        <v>279</v>
+      </c>
+      <c r="L22" t="s">
+        <v>280</v>
+      </c>
+      <c r="M22">
+        <v>0.85</v>
+      </c>
+      <c r="N22" t="s">
+        <v>281</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>996356411</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C23" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D23" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" t="s">
         <v>177</v>
       </c>
-      <c r="G4">
+      <c r="G23">
         <v>24</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H23" t="s">
         <v>221</v>
       </c>
-      <c r="I4">
+      <c r="I23">
         <v>38.714689</v>
       </c>
-      <c r="J4">
+      <c r="J23">
         <v>-76.659379000000001</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K23" t="s">
         <v>282</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L23" t="s">
         <v>283</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>281</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>993711947</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>265</v>
+      </c>
+      <c r="I24">
+        <v>38.725186479916999</v>
+      </c>
+      <c r="J24">
+        <v>-76.656948713773005</v>
+      </c>
+      <c r="K24" t="s">
+        <v>279</v>
+      </c>
+      <c r="L24" t="s">
+        <v>280</v>
+      </c>
+      <c r="M24">
+        <v>0.85</v>
+      </c>
+      <c r="N24" t="s">
+        <v>281</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>996605523</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C25" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D25" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" t="s">
         <v>178</v>
       </c>
-      <c r="G5">
+      <c r="G25">
         <v>21</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H25" t="s">
         <v>222</v>
       </c>
-      <c r="I5">
+      <c r="I25">
         <v>38.962083164440003</v>
       </c>
-      <c r="J5">
+      <c r="J25">
         <v>-76.884653833429994</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M5">
-        <v>0.85</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>996616309</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G6">
-        <v>18</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I6">
-        <v>38.994033167635003</v>
-      </c>
-      <c r="J6">
-        <v>-76.874776758265</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M6">
-        <v>0.85</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>996701795</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G7">
-        <v>16</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="I7">
-        <v>38.997937241301997</v>
-      </c>
-      <c r="J7">
-        <v>-77.023113278425996</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M7">
-        <v>0.85</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>996605561</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G8">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I8">
-        <v>38.764029777872999</v>
-      </c>
-      <c r="J8">
-        <v>-76.995245719837001</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M8">
-        <v>0.85</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>993878578</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G9">
-        <v>13</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="I9">
-        <v>39.357424737762997</v>
-      </c>
-      <c r="J9">
-        <v>-76.703951407386</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M9">
-        <v>0.85</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>996700633</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G10">
-        <v>13</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="I10">
-        <v>38.948256753785003</v>
-      </c>
-      <c r="J10">
-        <v>-76.868938568003998</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M10">
-        <v>0.85</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>994689737</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G11">
-        <v>12</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="I11">
-        <v>38.894836509283003</v>
-      </c>
-      <c r="J11">
-        <v>-76.995035334768005</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M11">
-        <v>0.85</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>996701834</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G12">
-        <v>11</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="I12">
-        <v>39.370838081031998</v>
-      </c>
-      <c r="J12">
-        <v>-76.468291270739002</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M12">
-        <v>0.85</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>996589142</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G13">
-        <v>11</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="I13">
-        <v>39.107546999999997</v>
-      </c>
-      <c r="J13">
-        <v>-76.851388999999998</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>996605558</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G14">
-        <v>11</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="I14">
-        <v>38.990974846012001</v>
-      </c>
-      <c r="J14">
-        <v>-77.026538509540003</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M14">
-        <v>0.85</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>996275967</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G15">
-        <v>8</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I15">
-        <v>39.310000993228002</v>
-      </c>
-      <c r="J15">
-        <v>-76.613347481109003</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M15">
-        <v>0.85</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>996605665</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="I16">
-        <v>38.947520699355003</v>
-      </c>
-      <c r="J16">
-        <v>-76.737216768812004</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M16">
-        <v>0.85</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>996600127</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G17">
-        <v>5</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I17">
-        <v>39.087856649315</v>
-      </c>
-      <c r="J17">
-        <v>-76.861151226469005</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M17">
-        <v>0.85</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>993719001</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I18">
-        <v>38.896697813256999</v>
-      </c>
-      <c r="J18">
-        <v>-76.914184208229997</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M18">
-        <v>0.85</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>996701816</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G19">
-        <v>4</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I19">
-        <v>39.076770688882</v>
-      </c>
-      <c r="J19">
-        <v>-76.867433314411002</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M19">
-        <v>0.85</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>993714301</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I20">
-        <v>39.039647653868997</v>
-      </c>
-      <c r="J20">
-        <v>-77.055816835957003</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M20">
-        <v>0.85</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>996207675</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="I21">
-        <v>39.478349000000001</v>
-      </c>
-      <c r="J21">
-        <v>-76.309852000000006</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>996605659</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="I22">
-        <v>38.917507188746001</v>
-      </c>
-      <c r="J22">
-        <v>-76.563371273724997</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M22">
-        <v>0.85</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>996526550</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I23">
-        <v>38.939471839456999</v>
-      </c>
-      <c r="J23">
-        <v>-76.906322241365999</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M23">
-        <v>0.85</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="K25" t="s">
+        <v>279</v>
+      </c>
+      <c r="L25" t="s">
+        <v>280</v>
+      </c>
+      <c r="M25">
+        <v>0.85</v>
+      </c>
+      <c r="N25" t="s">
+        <v>281</v>
+      </c>
+      <c r="O25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>996613409</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B26" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C26" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D26" t="s">
         <v>148</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="E26" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" t="s">
         <v>195</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I24">
-        <v>39.117564554906998</v>
-      </c>
-      <c r="J24">
-        <v>-76.632658471054995</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M24">
-        <v>0.85</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>996605614</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I25">
-        <v>38.818064999999997</v>
-      </c>
-      <c r="J25">
-        <v>-76.999032999999997</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>993726318</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="G26">
         <v>3</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>241</v>
+      <c r="H26" t="s">
+        <v>242</v>
       </c>
       <c r="I26">
-        <v>38.818064999999997</v>
+        <v>39.117564554906998</v>
       </c>
       <c r="J26">
-        <v>-76.999032999999997</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>283</v>
+        <v>-76.632658471054995</v>
+      </c>
+      <c r="K26" t="s">
+        <v>279</v>
+      </c>
+      <c r="L26" t="s">
+        <v>280</v>
       </c>
       <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.85</v>
+      </c>
+      <c r="N26" t="s">
+        <v>281</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>996605614</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="E27" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" t="s">
         <v>194</v>
       </c>
       <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
         <v>241</v>
       </c>
       <c r="I27">
@@ -2608,42 +2719,45 @@
       <c r="J27">
         <v>-76.999032999999997</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" t="s">
         <v>282</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" t="s">
         <v>283</v>
       </c>
       <c r="M27">
         <v>1</v>
       </c>
-      <c r="N27" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N27" t="s">
+        <v>281</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>993726318</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>147</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="E28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" t="s">
         <v>194</v>
       </c>
       <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" t="s">
         <v>241</v>
       </c>
       <c r="I28">
@@ -2652,1362 +2766,1455 @@
       <c r="J28">
         <v>-76.999032999999997</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" t="s">
         <v>282</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" t="s">
         <v>283</v>
       </c>
       <c r="M28">
         <v>1</v>
       </c>
-      <c r="N28" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N28" t="s">
+        <v>281</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>996595773</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>193</v>
+        <v>996605625</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" t="s">
+        <v>176</v>
       </c>
       <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>240</v>
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>264</v>
       </c>
       <c r="I29">
-        <v>39.100949043994</v>
+        <v>38.991905250400002</v>
       </c>
       <c r="J29">
-        <v>-77.191638268665002</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L29" s="2" t="s">
+        <v>-76.881764814183995</v>
+      </c>
+      <c r="K29" t="s">
+        <v>279</v>
+      </c>
+      <c r="L29" t="s">
         <v>280</v>
       </c>
       <c r="M29">
         <v>0.85</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N29" t="s">
+        <v>281</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>995274400</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>197</v>
+        <v>996207675</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" t="s">
+        <v>190</v>
       </c>
       <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>244</v>
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>237</v>
       </c>
       <c r="I30">
-        <v>38.982585401911997</v>
+        <v>39.478349000000001</v>
       </c>
       <c r="J30">
-        <v>-77.094011577450999</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>280</v>
+        <v>-76.309852000000006</v>
+      </c>
+      <c r="K30" t="s">
+        <v>282</v>
+      </c>
+      <c r="L30" t="s">
+        <v>283</v>
       </c>
       <c r="M30">
-        <v>0.85</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>281</v>
+      </c>
+      <c r="O30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31">
+        <v>996613952</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" t="s">
+        <v>200</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>263</v>
+      </c>
+      <c r="I31">
+        <v>38.806706269647997</v>
+      </c>
+      <c r="J31">
+        <v>-76.902574959248</v>
+      </c>
+      <c r="K31" t="s">
+        <v>279</v>
+      </c>
+      <c r="L31" t="s">
+        <v>280</v>
+      </c>
+      <c r="M31">
+        <v>0.85</v>
+      </c>
+      <c r="N31" t="s">
+        <v>281</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>996701834</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" t="s">
+        <v>186</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>231</v>
+      </c>
+      <c r="I32">
+        <v>39.370838081031998</v>
+      </c>
+      <c r="J32">
+        <v>-76.468291270739002</v>
+      </c>
+      <c r="K32" t="s">
+        <v>279</v>
+      </c>
+      <c r="L32" t="s">
+        <v>280</v>
+      </c>
+      <c r="M32">
+        <v>0.85</v>
+      </c>
+      <c r="N32" t="s">
+        <v>281</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>995605680</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B33" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C33" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D33" t="s">
         <v>156</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E33" t="s">
         <v>173</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F33" t="s">
         <v>203</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="I31">
-        <v>38.848158233821003</v>
-      </c>
-      <c r="J31">
-        <v>-77.306212052468993</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M31">
-        <v>0.85</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>993703115</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="I32">
-        <v>38.760413</v>
-      </c>
-      <c r="J32">
-        <v>-76.061988999999997</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>996702174</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="G33">
         <v>2</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" t="s">
+        <v>252</v>
+      </c>
+      <c r="I33">
+        <v>38.848158233821003</v>
+      </c>
+      <c r="J33">
+        <v>-77.306212052468993</v>
+      </c>
+      <c r="K33" t="s">
+        <v>279</v>
+      </c>
+      <c r="L33" t="s">
+        <v>280</v>
+      </c>
+      <c r="M33">
+        <v>0.85</v>
+      </c>
+      <c r="N33" t="s">
+        <v>281</v>
+      </c>
+      <c r="O33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>996605561</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" t="s">
+        <v>181</v>
+      </c>
+      <c r="G34">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>225</v>
+      </c>
+      <c r="I34">
+        <v>38.764029777872999</v>
+      </c>
+      <c r="J34">
+        <v>-76.995245719837001</v>
+      </c>
+      <c r="K34" t="s">
+        <v>279</v>
+      </c>
+      <c r="L34" t="s">
+        <v>280</v>
+      </c>
+      <c r="M34">
+        <v>0.85</v>
+      </c>
+      <c r="N34" t="s">
+        <v>281</v>
+      </c>
+      <c r="O34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>996700633</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>226</v>
+      </c>
+      <c r="I35">
+        <v>38.948256753785003</v>
+      </c>
+      <c r="J35">
+        <v>-76.868938568003998</v>
+      </c>
+      <c r="K35" t="s">
+        <v>279</v>
+      </c>
+      <c r="L35" t="s">
+        <v>280</v>
+      </c>
+      <c r="M35">
+        <v>0.85</v>
+      </c>
+      <c r="N35" t="s">
+        <v>281</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>996275967</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" t="s">
+        <v>187</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s">
+        <v>232</v>
+      </c>
+      <c r="I36">
+        <v>39.310000993228002</v>
+      </c>
+      <c r="J36">
+        <v>-76.613347481109003</v>
+      </c>
+      <c r="K36" t="s">
+        <v>279</v>
+      </c>
+      <c r="L36" t="s">
+        <v>280</v>
+      </c>
+      <c r="M36">
+        <v>0.85</v>
+      </c>
+      <c r="N36" t="s">
+        <v>281</v>
+      </c>
+      <c r="O36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>993878578</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" t="s">
+        <v>183</v>
+      </c>
+      <c r="G37">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>227</v>
+      </c>
+      <c r="I37">
+        <v>39.357424737762997</v>
+      </c>
+      <c r="J37">
+        <v>-76.703951407386</v>
+      </c>
+      <c r="K37" t="s">
+        <v>279</v>
+      </c>
+      <c r="L37" t="s">
+        <v>280</v>
+      </c>
+      <c r="M37">
+        <v>0.85</v>
+      </c>
+      <c r="N37" t="s">
+        <v>281</v>
+      </c>
+      <c r="O37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>993706348</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" t="s">
+        <v>212</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>267</v>
+      </c>
+      <c r="I38">
+        <v>39.219123536386</v>
+      </c>
+      <c r="J38">
+        <v>-76.85690950067</v>
+      </c>
+      <c r="K38" t="s">
+        <v>279</v>
+      </c>
+      <c r="L38" t="s">
+        <v>280</v>
+      </c>
+      <c r="M38">
+        <v>0.85</v>
+      </c>
+      <c r="N38" t="s">
+        <v>281</v>
+      </c>
+      <c r="O38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>993703115</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" t="s">
+        <v>171</v>
+      </c>
+      <c r="F39" t="s">
+        <v>198</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>245</v>
+      </c>
+      <c r="I39">
+        <v>38.760413</v>
+      </c>
+      <c r="J39">
+        <v>-76.061988999999997</v>
+      </c>
+      <c r="K39" t="s">
+        <v>282</v>
+      </c>
+      <c r="L39" t="s">
+        <v>283</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>281</v>
+      </c>
+      <c r="O39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>996701927</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" t="s">
+        <v>171</v>
+      </c>
+      <c r="F40" t="s">
+        <v>213</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>270</v>
+      </c>
+      <c r="I40">
+        <v>39.399382087126</v>
+      </c>
+      <c r="J40">
+        <v>-76.753732079743997</v>
+      </c>
+      <c r="K40" t="s">
+        <v>279</v>
+      </c>
+      <c r="L40" t="s">
+        <v>280</v>
+      </c>
+      <c r="M40">
+        <v>0.85</v>
+      </c>
+      <c r="N40" t="s">
+        <v>281</v>
+      </c>
+      <c r="O40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>996605558</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>229</v>
+      </c>
+      <c r="I41">
+        <v>38.990974846012001</v>
+      </c>
+      <c r="J41">
+        <v>-77.026538509540003</v>
+      </c>
+      <c r="K41" t="s">
+        <v>279</v>
+      </c>
+      <c r="L41" t="s">
+        <v>280</v>
+      </c>
+      <c r="M41">
+        <v>0.85</v>
+      </c>
+      <c r="N41" t="s">
+        <v>281</v>
+      </c>
+      <c r="O41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>994689737</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G42">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>228</v>
+      </c>
+      <c r="I42">
+        <v>38.894836509283003</v>
+      </c>
+      <c r="J42">
+        <v>-76.995035334768005</v>
+      </c>
+      <c r="K42" t="s">
+        <v>279</v>
+      </c>
+      <c r="L42" t="s">
+        <v>280</v>
+      </c>
+      <c r="M42">
+        <v>0.85</v>
+      </c>
+      <c r="N42" t="s">
+        <v>281</v>
+      </c>
+      <c r="O42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>993726147</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" t="s">
+        <v>171</v>
+      </c>
+      <c r="F43" t="s">
+        <v>185</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>269</v>
+      </c>
+      <c r="I43">
+        <v>39.107537430195997</v>
+      </c>
+      <c r="J43">
+        <v>-76.851361156823998</v>
+      </c>
+      <c r="K43" t="s">
+        <v>279</v>
+      </c>
+      <c r="L43" t="s">
+        <v>280</v>
+      </c>
+      <c r="M43">
+        <v>0.85</v>
+      </c>
+      <c r="N43" t="s">
+        <v>281</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>996605665</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" t="s">
+        <v>171</v>
+      </c>
+      <c r="F44" t="s">
+        <v>188</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
+      <c r="H44" t="s">
+        <v>233</v>
+      </c>
+      <c r="I44">
+        <v>38.947520699355003</v>
+      </c>
+      <c r="J44">
+        <v>-76.737216768812004</v>
+      </c>
+      <c r="K44" t="s">
+        <v>279</v>
+      </c>
+      <c r="L44" t="s">
+        <v>280</v>
+      </c>
+      <c r="M44">
+        <v>0.85</v>
+      </c>
+      <c r="N44" t="s">
+        <v>281</v>
+      </c>
+      <c r="O44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>996702174</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" t="s">
+        <v>199</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
         <v>246</v>
       </c>
-      <c r="I33">
+      <c r="I45">
         <v>39.352273622299997</v>
       </c>
-      <c r="J33">
+      <c r="J45">
         <v>-76.451959412060006</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M33">
-        <v>0.85</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A34">
+      <c r="K45" t="s">
+        <v>279</v>
+      </c>
+      <c r="L45" t="s">
+        <v>280</v>
+      </c>
+      <c r="M45">
+        <v>0.85</v>
+      </c>
+      <c r="N45" t="s">
+        <v>281</v>
+      </c>
+      <c r="O45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>993705513</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>247</v>
+      </c>
+      <c r="I46">
+        <v>38.806706269647997</v>
+      </c>
+      <c r="J46">
+        <v>-76.902574959248</v>
+      </c>
+      <c r="K46" t="s">
+        <v>279</v>
+      </c>
+      <c r="L46" t="s">
+        <v>280</v>
+      </c>
+      <c r="M46">
+        <v>0.85</v>
+      </c>
+      <c r="N46" t="s">
+        <v>281</v>
+      </c>
+      <c r="O46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>993713632</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" t="s">
+        <v>192</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>268</v>
+      </c>
+      <c r="I47">
+        <v>38.949921900122</v>
+      </c>
+      <c r="J47">
+        <v>-76.886432435838003</v>
+      </c>
+      <c r="K47" t="s">
+        <v>279</v>
+      </c>
+      <c r="L47" t="s">
+        <v>280</v>
+      </c>
+      <c r="M47">
+        <v>0.85</v>
+      </c>
+      <c r="N47" t="s">
+        <v>281</v>
+      </c>
+      <c r="O47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>996593018</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" t="s">
+        <v>171</v>
+      </c>
+      <c r="F48" t="s">
+        <v>195</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>271</v>
+      </c>
+      <c r="I48">
+        <v>39.094463788120002</v>
+      </c>
+      <c r="J48">
+        <v>-76.631837949727</v>
+      </c>
+      <c r="K48" t="s">
+        <v>279</v>
+      </c>
+      <c r="L48" t="s">
+        <v>280</v>
+      </c>
+      <c r="M48">
+        <v>0.85</v>
+      </c>
+      <c r="N48" t="s">
+        <v>281</v>
+      </c>
+      <c r="O48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>993722766</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" t="s">
+        <v>174</v>
+      </c>
+      <c r="F49" t="s">
+        <v>215</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>274</v>
+      </c>
+      <c r="I49">
+        <v>39.159995000000002</v>
+      </c>
+      <c r="J49">
+        <v>-75.555611999999996</v>
+      </c>
+      <c r="K49" t="s">
+        <v>282</v>
+      </c>
+      <c r="L49" t="s">
+        <v>283</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>281</v>
+      </c>
+      <c r="O49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>996539471</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" t="s">
+        <v>139</v>
+      </c>
+      <c r="E50" t="s">
+        <v>172</v>
+      </c>
+      <c r="F50" t="s">
+        <v>202</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I50">
+        <v>38.865663046858998</v>
+      </c>
+      <c r="J50">
+        <v>-76.989488950147006</v>
+      </c>
+      <c r="K50" t="s">
+        <v>279</v>
+      </c>
+      <c r="L50" t="s">
+        <v>280</v>
+      </c>
+      <c r="M50">
+        <v>0.85</v>
+      </c>
+      <c r="N50" t="s">
+        <v>281</v>
+      </c>
+      <c r="O50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>996576449</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" t="s">
+        <v>171</v>
+      </c>
+      <c r="F51" t="s">
+        <v>200</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>251</v>
+      </c>
+      <c r="I51">
+        <v>38.806680696674</v>
+      </c>
+      <c r="J51">
+        <v>-76.902760115299003</v>
+      </c>
+      <c r="K51" t="s">
+        <v>279</v>
+      </c>
+      <c r="L51" t="s">
+        <v>280</v>
+      </c>
+      <c r="M51">
+        <v>0.85</v>
+      </c>
+      <c r="N51" t="s">
+        <v>281</v>
+      </c>
+      <c r="O51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A52">
         <v>994842782</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B52" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C52" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D52" t="s">
         <v>154</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="E52" t="s">
+        <v>171</v>
+      </c>
+      <c r="F52" t="s">
         <v>189</v>
       </c>
-      <c r="G34">
+      <c r="G52">
         <v>2</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H52" t="s">
         <v>250</v>
       </c>
-      <c r="I34">
+      <c r="I52">
         <v>38.896697813256999</v>
       </c>
-      <c r="J34">
+      <c r="J52">
         <v>-76.914184208229997</v>
       </c>
-      <c r="K34" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M34">
-        <v>0.85</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>993705513</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I35">
-        <v>38.806706269647997</v>
-      </c>
-      <c r="J35">
-        <v>-76.902574959248</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M35">
-        <v>0.85</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>996539471</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="I36">
-        <v>38.865663046858998</v>
-      </c>
-      <c r="J36">
-        <v>-76.989488950147006</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M36">
-        <v>0.85</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>996576449</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="I37">
-        <v>38.806680696674</v>
-      </c>
-      <c r="J37">
-        <v>-76.902760115299003</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M37">
-        <v>0.85</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>996605668</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I38">
-        <v>38.854320609856998</v>
-      </c>
-      <c r="J38">
-        <v>-76.907870454486002</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M38">
-        <v>0.85</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>993709552</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="I39">
-        <v>38.965454463390998</v>
-      </c>
-      <c r="J39">
-        <v>-76.845078138519995</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M39">
-        <v>0.85</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>996374028</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="I40">
-        <v>38.852527168123999</v>
-      </c>
-      <c r="J40">
-        <v>-76.913269197366006</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M40">
-        <v>0.85</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>993726147</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="K52" t="s">
+        <v>279</v>
+      </c>
+      <c r="L52" t="s">
+        <v>280</v>
+      </c>
+      <c r="M52">
+        <v>0.85</v>
+      </c>
+      <c r="N52" t="s">
+        <v>281</v>
+      </c>
+      <c r="O52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>993713024</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" t="s">
+        <v>171</v>
+      </c>
+      <c r="F53" t="s">
+        <v>194</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>273</v>
+      </c>
+      <c r="I53">
+        <v>38.784618302146001</v>
+      </c>
+      <c r="J53">
+        <v>-77.014435288708995</v>
+      </c>
+      <c r="K53" t="s">
+        <v>279</v>
+      </c>
+      <c r="L53" t="s">
+        <v>280</v>
+      </c>
+      <c r="M53">
+        <v>0.85</v>
+      </c>
+      <c r="N53" t="s">
+        <v>281</v>
+      </c>
+      <c r="O53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>996616309</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" t="s">
+        <v>179</v>
+      </c>
+      <c r="G54">
+        <v>18</v>
+      </c>
+      <c r="H54" t="s">
+        <v>223</v>
+      </c>
+      <c r="I54">
+        <v>38.994033167635003</v>
+      </c>
+      <c r="J54">
+        <v>-76.874776758265</v>
+      </c>
+      <c r="K54" t="s">
+        <v>279</v>
+      </c>
+      <c r="L54" t="s">
+        <v>280</v>
+      </c>
+      <c r="M54">
+        <v>0.85</v>
+      </c>
+      <c r="N54" t="s">
+        <v>281</v>
+      </c>
+      <c r="O54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>996668361</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F55" t="s">
+        <v>214</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>272</v>
+      </c>
+      <c r="I55">
+        <v>38.844633773704999</v>
+      </c>
+      <c r="J55">
+        <v>-76.950738824134007</v>
+      </c>
+      <c r="K55" t="s">
+        <v>279</v>
+      </c>
+      <c r="L55" t="s">
+        <v>280</v>
+      </c>
+      <c r="M55">
+        <v>0.85</v>
+      </c>
+      <c r="N55" t="s">
+        <v>281</v>
+      </c>
+      <c r="O55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>996675194</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" t="s">
+        <v>173</v>
+      </c>
+      <c r="F56" t="s">
+        <v>216</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>275</v>
+      </c>
+      <c r="I56">
+        <v>38.827099481988</v>
+      </c>
+      <c r="J56">
+        <v>-77.089397238106997</v>
+      </c>
+      <c r="K56" t="s">
+        <v>279</v>
+      </c>
+      <c r="L56" t="s">
+        <v>280</v>
+      </c>
+      <c r="M56">
+        <v>0.85</v>
+      </c>
+      <c r="N56" t="s">
+        <v>281</v>
+      </c>
+      <c r="O56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>996589142</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="E57" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57" t="s">
         <v>185</v>
       </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="I41">
-        <v>39.107537430195997</v>
-      </c>
-      <c r="J41">
-        <v>-76.851361156823998</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M41">
-        <v>0.85</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>996605037</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="I42">
-        <v>39.420141000000001</v>
-      </c>
-      <c r="J42">
-        <v>-76.614934000000005</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="G57">
+        <v>11</v>
+      </c>
+      <c r="H57" t="s">
+        <v>230</v>
+      </c>
+      <c r="I57">
+        <v>39.107546999999997</v>
+      </c>
+      <c r="J57">
+        <v>-76.851388999999998</v>
+      </c>
+      <c r="K57" t="s">
         <v>282</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L57" t="s">
         <v>283</v>
       </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>994518555</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="I43">
-        <v>38.287827</v>
-      </c>
-      <c r="J43">
-        <v>-76.486659000000003</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>993706348</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="I44">
-        <v>39.219123536386</v>
-      </c>
-      <c r="J44">
-        <v>-76.85690950067</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M44">
-        <v>0.85</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>993886050</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I45">
-        <v>38.297423000000002</v>
-      </c>
-      <c r="J45">
-        <v>-76.507039000000006</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>993713024</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I46">
-        <v>38.784618302146001</v>
-      </c>
-      <c r="J46">
-        <v>-77.014435288708995</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M46">
-        <v>0.85</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>996302056</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="I47">
-        <v>38.978453621085997</v>
-      </c>
-      <c r="J47">
-        <v>-76.732646498934997</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M47">
-        <v>0.85</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>993711947</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="I48">
-        <v>38.725186479916999</v>
-      </c>
-      <c r="J48">
-        <v>-76.656948713773005</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M48">
-        <v>0.85</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>993722861</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="I49">
-        <v>39.282380835028</v>
-      </c>
-      <c r="J49">
-        <v>-76.754056916446004</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M49">
-        <v>0.85</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>993713632</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="I50">
-        <v>38.949921900122</v>
-      </c>
-      <c r="J50">
-        <v>-76.886432435838003</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M50">
-        <v>0.85</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>993724575</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="I51">
-        <v>39.452903999999997</v>
-      </c>
-      <c r="J51">
-        <v>-76.638546000000005</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>993722766</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="I52">
-        <v>39.159995000000002</v>
-      </c>
-      <c r="J52">
-        <v>-75.555611999999996</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>996490715</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I53">
-        <v>38.994166972965999</v>
-      </c>
-      <c r="J53">
-        <v>-76.537415349574005</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M53">
-        <v>0.85</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>996416169</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="I54">
-        <v>38.553465614632003</v>
-      </c>
-      <c r="J54">
-        <v>-76.592343271912995</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M54">
-        <v>0.85</v>
-      </c>
-      <c r="N54" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>996174730</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="I55">
-        <v>38.983138747917998</v>
-      </c>
-      <c r="J55">
-        <v>-76.535295298017999</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M55">
-        <v>0.85</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>993703512</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="I56">
-        <v>38.985910543110997</v>
-      </c>
-      <c r="J56">
-        <v>-76.552082916711996</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M56">
-        <v>0.85</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>996605625</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="I57">
-        <v>38.991905250400002</v>
-      </c>
-      <c r="J57">
-        <v>-76.881764814183995</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="M57">
-        <v>0.85</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>281</v>
+      </c>
+      <c r="O57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>996613952</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>200</v>
+        <v>996595773</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58" t="s">
+        <v>193</v>
       </c>
       <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>263</v>
+        <v>3</v>
+      </c>
+      <c r="H58" t="s">
+        <v>240</v>
       </c>
       <c r="I58">
-        <v>38.806706269647997</v>
+        <v>39.100949043994</v>
       </c>
       <c r="J58">
-        <v>-76.902574959248</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L58" s="2" t="s">
+        <v>-77.191638268665002</v>
+      </c>
+      <c r="K58" t="s">
+        <v>279</v>
+      </c>
+      <c r="L58" t="s">
         <v>280</v>
       </c>
       <c r="M58">
         <v>0.85</v>
       </c>
-      <c r="N58" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N58" t="s">
+        <v>281</v>
+      </c>
+      <c r="O58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>996237563</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" t="s">
         <v>128</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" t="s">
         <v>170</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="E59" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" t="s">
         <v>217</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" t="s">
         <v>276</v>
       </c>
       <c r="I59">
@@ -4016,237 +4223,268 @@
       <c r="J59">
         <v>-76.324354</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K59" t="s">
         <v>282</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="L59" t="s">
         <v>283</v>
       </c>
       <c r="M59">
         <v>1</v>
       </c>
-      <c r="N59" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N59" t="s">
+        <v>281</v>
+      </c>
+      <c r="O59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>996701927</v>
-      </c>
-      <c r="B60" s="2" t="s">
+        <v>993703512</v>
+      </c>
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" t="s">
+        <v>171</v>
+      </c>
+      <c r="F60" t="s">
+        <v>206</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>277</v>
+      </c>
+      <c r="I60">
+        <v>38.985910543110997</v>
+      </c>
+      <c r="J60">
+        <v>-76.552082916711996</v>
+      </c>
+      <c r="K60" t="s">
+        <v>279</v>
+      </c>
+      <c r="L60" t="s">
+        <v>280</v>
+      </c>
+      <c r="M60">
+        <v>0.85</v>
+      </c>
+      <c r="N60" t="s">
+        <v>281</v>
+      </c>
+      <c r="O60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>996605668</v>
+      </c>
+      <c r="B61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" t="s">
+        <v>171</v>
+      </c>
+      <c r="F61" t="s">
+        <v>201</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61" t="s">
+        <v>248</v>
+      </c>
+      <c r="I61">
+        <v>38.854320609856998</v>
+      </c>
+      <c r="J61">
+        <v>-76.907870454486002</v>
+      </c>
+      <c r="K61" t="s">
+        <v>279</v>
+      </c>
+      <c r="L61" t="s">
+        <v>280</v>
+      </c>
+      <c r="M61">
+        <v>0.85</v>
+      </c>
+      <c r="N61" t="s">
+        <v>281</v>
+      </c>
+      <c r="O61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>996526550</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" t="s">
+        <v>171</v>
+      </c>
+      <c r="F62" t="s">
+        <v>192</v>
+      </c>
+      <c r="G62">
+        <v>3</v>
+      </c>
+      <c r="H62" t="s">
+        <v>239</v>
+      </c>
+      <c r="I62">
+        <v>38.939471839456999</v>
+      </c>
+      <c r="J62">
+        <v>-76.906322241365999</v>
+      </c>
+      <c r="K62" t="s">
+        <v>279</v>
+      </c>
+      <c r="L62" t="s">
+        <v>280</v>
+      </c>
+      <c r="M62">
+        <v>0.85</v>
+      </c>
+      <c r="N62" t="s">
+        <v>281</v>
+      </c>
+      <c r="O62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>996701857</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" t="s">
+        <v>171</v>
+      </c>
+      <c r="F63" t="s">
+        <v>175</v>
+      </c>
+      <c r="G63">
+        <v>60</v>
+      </c>
+      <c r="H63" t="s">
+        <v>219</v>
+      </c>
+      <c r="I63">
+        <v>38.616638000000002</v>
+      </c>
+      <c r="J63">
+        <v>-76.890698</v>
+      </c>
+      <c r="K63" t="s">
+        <v>282</v>
+      </c>
+      <c r="L63" t="s">
+        <v>283</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>281</v>
+      </c>
+      <c r="O63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>996465882</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" t="s">
+        <v>139</v>
+      </c>
+      <c r="E64" t="s">
+        <v>172</v>
+      </c>
+      <c r="F64" t="s">
+        <v>218</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>278</v>
+      </c>
+      <c r="I64">
+        <v>38.898473449150998</v>
+      </c>
+      <c r="J64">
+        <v>-77.011358220890003</v>
+      </c>
+      <c r="K64" t="s">
+        <v>279</v>
+      </c>
+      <c r="L64" t="s">
+        <v>280</v>
+      </c>
+      <c r="M64">
+        <v>0.85</v>
+      </c>
+      <c r="N64" t="s">
+        <v>281</v>
+      </c>
+      <c r="O64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>286</v>
+      </c>
+      <c r="J65">
+        <f>SUBTOTAL(103,Table1_1[Longitude])</f>
         <v>63</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="I60">
-        <v>39.399382087126</v>
-      </c>
-      <c r="J60">
-        <v>-76.753732079743997</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M60">
-        <v>0.85</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>996465882</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I61">
-        <v>38.898473449150998</v>
-      </c>
-      <c r="J61">
-        <v>-77.011358220890003</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M61">
-        <v>0.85</v>
-      </c>
-      <c r="N61" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>996593018</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="I62">
-        <v>39.094463788120002</v>
-      </c>
-      <c r="J62">
-        <v>-76.631837949727</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M62">
-        <v>0.85</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>996668361</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="I63">
-        <v>38.844633773704999</v>
-      </c>
-      <c r="J63">
-        <v>-76.950738824134007</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M63">
-        <v>0.85</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>996675194</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I64">
-        <v>38.827099481988</v>
-      </c>
-      <c r="J64">
-        <v>-77.089397238106997</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="M64">
-        <v>0.85</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>281</v>
+      <c r="O65" s="3">
+        <f>SUBTOTAL(101,Table1_1[FV Updated])</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4259,7 +4497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A2:M62"/>
